--- a/app/config/tables/beneficiaries/forms/distribution_form_check_barcode/distribution_form_check_barcode.xlsx
+++ b/app/config/tables/beneficiaries/forms/distribution_form_check_barcode/distribution_form_check_barcode.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="43780" windowHeight="30280" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="2" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="survey" sheetId="1" r:id="rId3"/>
     <sheet name="choices" sheetId="4" r:id="rId4"/>
     <sheet name="initial" sheetId="5" r:id="rId5"/>
+    <sheet name="calculates" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="89">
   <si>
     <t>type</t>
   </si>
@@ -61,9 +62,6 @@
     <t>beneficiary_code</t>
   </si>
   <si>
-    <t>envelope_code</t>
-  </si>
-  <si>
     <t>date_distributed</t>
   </si>
   <si>
@@ -127,9 +125,6 @@
     <t xml:space="preserve">barcode </t>
   </si>
   <si>
-    <t>Scan the envelope barcode</t>
-  </si>
-  <si>
     <t>instance_name</t>
   </si>
   <si>
@@ -142,18 +137,9 @@
     <t>distribution_form_check_barcode</t>
   </si>
   <si>
-    <t>They should receive envelope {{data.envelope_code}}.</t>
-  </si>
-  <si>
     <t>If this envelope does not exist or is not found, contact your administrator.</t>
   </si>
   <si>
-    <t>scanned_envelope_code</t>
-  </si>
-  <si>
-    <t>model.isSessionVariable</t>
-  </si>
-  <si>
     <t>Scanned envelope</t>
   </si>
   <si>
@@ -172,9 +158,6 @@
     <t>yes_no</t>
   </si>
   <si>
-    <t>Did they receive the card?</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -199,9 +182,6 @@
     <t>confirm_distribution</t>
   </si>
   <si>
-    <t>Incorrect card! They should receive card {{data.envelope_code}}. You scanned {{data.scanned_envelope_code}}. Please go back and rescan the correct card.</t>
-  </si>
-  <si>
     <t>spare_str_1</t>
   </si>
   <si>
@@ -229,9 +209,6 @@
     <t>data('received_card') !== 1</t>
   </si>
   <si>
-    <t>data('scanned_envelope_code') !== data('envelope_code') &amp;&amp; data('received_card') !== 1</t>
-  </si>
-  <si>
     <t>assign</t>
   </si>
   <si>
@@ -256,14 +233,97 @@
     <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
   </si>
   <si>
-    <t>Enter or update the envelope barcode</t>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>distributions</t>
+  </si>
+  <si>
+    <t>item_code</t>
+  </si>
+  <si>
+    <t>scanned_item_code</t>
+  </si>
+  <si>
+    <t>Scan the item barcode</t>
+  </si>
+  <si>
+    <t>Enter or update the item barcode</t>
+  </si>
+  <si>
+    <t>Did they receive their item(s)?</t>
+  </si>
+  <si>
+    <t>Incorrect item! They should receive card {{data.item_code}}. You scanned {{data.scanned_item_code}}. Please go back and rescan the correct item(s).</t>
+  </si>
+  <si>
+    <t>distributions_received</t>
+  </si>
+  <si>
+    <t>remainingDistributions</t>
+  </si>
+  <si>
+    <t>remaining_distributions</t>
+  </si>
+  <si>
+    <t>They should receive {{data.remaining_distributions}}.</t>
+  </si>
+  <si>
+    <t>calculates.remainingDistributions()</t>
+  </si>
+  <si>
+    <t>calculation_name</t>
+  </si>
+  <si>
+    <t>data('scanned_item_code') !== data('item_code') &amp;&amp; data('received_card') !== 1</t>
+  </si>
+  <si>
+    <t>mobile_provider</t>
+  </si>
+  <si>
+    <t>hh_size</t>
+  </si>
+  <si>
+    <t>(function() {
+if (data('distributions') === null || data('distributions_received') === null) {
+ return 'other null data values';
+}
+ else { 
+var overallDistributions = data('distributions').split(';');
+var splitOverallDistributions = new Array(overallDistributions.length);
+for (var i = 0; i &lt; overallDistributions.length; i++) {
+splitOverallDistributions[i] = overallDistributions[i].split(' ');
+}
+var receivedDistributions = data('distributions_received').split(';');
+var splitReceivedDistributions = new Array(receivedDistributions.length);
+for (var i = 0; i &lt; receivedDistributions.length; i++) {
+splitReceivedDistributions[i] = receivedDistributions[i].split(' ');
+}
+var remainDistributions = [];
+for (var i = 0; i &lt; receivedDistributions.length; i++) {
+for (var j = 0; j &lt; overallDistributions.length; j++) {
+if (splitReceivedDistributions[i][1] === splitOverallDistributions[j][1]) {
+var quantity = parseInt(splitOverallDistributions[j][0]) - parseInt(splitReceivedDistributions[i][0]);
+remainDistributions.push(quantity + ' ' + splitOverallDistributions[i][1]);
+}
+}
+}
+return remainDistributions;
+}
+})()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -317,6 +377,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -436,7 +503,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -468,8 +535,114 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -494,8 +667,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="137">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -511,6 +689,59 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -526,6 +757,59 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -855,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -897,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -950,15 +1234,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>11</v>
@@ -966,42 +1250,42 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1009,7 +1293,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1017,7 +1301,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1025,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1033,7 +1317,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1041,7 +1325,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1049,20 +1333,80 @@
         <v>2</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1080,7 +1424,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -1093,26 +1437,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7">
         <v>20150212</v>
@@ -1120,26 +1464,26 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1154,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -1173,56 +1517,53 @@
   <sheetData>
     <row r="1" spans="1:9" s="10" customFormat="1">
       <c r="A1" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="C2" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -1230,17 +1571,17 @@
     </row>
     <row r="4" spans="1:9">
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -1248,172 +1589,182 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:9">
+      <c r="A7" s="9"/>
       <c r="C7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="15" t="s">
-        <v>40</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="12"/>
+      <c r="C8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>67</v>
+      <c r="A9" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="C10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="A10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="B10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="12"/>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>75</v>
+      </c>
       <c r="G11" s="12"/>
-      <c r="H11" s="15"/>
+      <c r="H11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>67</v>
+      <c r="A12" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="C13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="A13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>77</v>
-      </c>
+      <c r="B13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="12"/>
+      <c r="C14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="G14" s="12"/>
-      <c r="H14" s="15"/>
+      <c r="H14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>68</v>
+      <c r="A15" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="C16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>58</v>
-      </c>
+      <c r="A16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="12"/>
+      <c r="C17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="G17" s="12"/>
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="C19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>49</v>
-      </c>
+      <c r="A19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="7" t="s">
+      <c r="C20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="D20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="G20" s="12"/>
       <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1438,35 +1789,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1484,28 +1835,28 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25">
       <c r="A2" s="21" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -1513,12 +1864,12 @@
     </row>
     <row r="3" spans="1:4" ht="145">
       <c r="A3" s="21" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="21" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1529,4 +1880,110 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="409">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="22"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="22"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="22"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="22"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="22"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="22"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="22"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="22"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="22"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="22"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="22"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="22"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="22"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="22"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="22"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="22"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="22"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="22"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="22"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="22"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="22"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="22"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>